--- a/simulations/cleaned_inclusion_exclusion/Hall_2012 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Hall_2012 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.8945752302968271</v>
+        <v>0.9107244398953713</v>
       </c>
       <c r="I3">
-        <v>0.02474503572155776</v>
+        <v>0.008067229122586471</v>
       </c>
       <c r="J3">
         <v>0.8942307692307693</v>
       </c>
       <c r="K3">
-        <v>267.5096153846154</v>
+        <v>122.5961538461538</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -755,34 +755,34 @@
         <v>93</v>
       </c>
       <c r="Q3">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="S3">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="T3">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="U3">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="V3">
-        <v>8527</v>
+        <v>8683</v>
       </c>
       <c r="W3">
-        <v>8521</v>
+        <v>8671</v>
       </c>
       <c r="X3">
-        <v>8501</v>
+        <v>8643</v>
       </c>
       <c r="Y3">
-        <v>8470</v>
+        <v>8608</v>
       </c>
       <c r="Z3">
-        <v>8456</v>
+        <v>8589</v>
       </c>
       <c r="AA3">
         <v>94</v>
@@ -800,19 +800,19 @@
         <v>11</v>
       </c>
       <c r="AF3">
-        <v>0.981356</v>
+        <v>0.999309</v>
       </c>
       <c r="AG3">
-        <v>0.980665</v>
+        <v>0.997928</v>
       </c>
       <c r="AH3">
-        <v>0.978363</v>
+        <v>0.994706</v>
       </c>
       <c r="AI3">
-        <v>0.974796</v>
+        <v>0.9906779999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.973184</v>
+        <v>0.988491</v>
       </c>
     </row>
   </sheetData>
